--- a/mereni_MD/6.sval3.xlsx
+++ b/mereni_MD/6.sval3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MarekU\Programing\Projekt-5\mereni_MD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B0124A-1F8A-499D-933E-4E62567AE0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097CC934-4D83-4CAB-9233-819792DC8495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,9 +83,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -117,41 +116,11 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -168,7 +137,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -177,7 +146,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
@@ -193,10 +174,333 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet!$B$2:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>588.62347412109295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>592.91864013671795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>588.97796630859295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>589.44512939453102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>620.315673828125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>646.24475097656205</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>672.62310791015602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>691.03961181640602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>710.85906982421795</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>734.85217285156205</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>758.813720703125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>777.79437255859295</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>802.05334472656205</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>822.94921875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>840.75622558593705</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>863.97015380859295</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>879.31701660156205</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>897.760009765625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>915.90283203125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>932.90295410156205</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>947.75109863281205</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>965.26672363281205</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>980.63922119140602</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1002.45025634765</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1019.82946777343</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1029.61254882812</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1047.07897949218</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1059.63391113281</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1075.87487792968</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1099.75708007812</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1119.35852050781</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1141.62854003906</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1152.59155273437</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1173.89428710937</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1188.7919921875</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1212.76379394531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7205-4E92-97F3-FAFDB055825F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hodnota fyzického senzoru</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.15957217847769029"/>
-                  <c:y val="-3.2824074074074075E-2"/>
+                  <c:x val="-2.9896981627296589E-2"/>
+                  <c:y val="-7.1023986585010204E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -229,7 +533,7 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet!$A$2:$A$37</c:f>
               <c:numCache>
@@ -345,325 +649,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet!$B$2:$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>588.62347412109295</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>592.91864013671795</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>588.97796630859295</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>589.44512939453102</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>620.315673828125</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>646.24475097656205</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>672.62310791015602</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>691.03961181640602</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>710.85906982421795</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>734.85217285156205</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>758.813720703125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>777.79437255859295</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>802.05334472656205</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>822.94921875</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>840.75622558593705</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>863.97015380859295</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>879.31701660156205</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>897.760009765625</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>915.90283203125</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>932.90295410156205</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>947.75109863281205</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>965.26672363281205</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>980.63922119140602</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1002.45025634765</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1019.82946777343</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1029.61254882812</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1047.07897949218</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1059.63391113281</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1075.87487792968</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1099.75708007812</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1119.35852050781</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1141.62854003906</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1152.59155273437</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1173.89428710937</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1188.7919921875</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1212.76379394531</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-50D4-41AB-BAD5-BC7F55E059EF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Hodnota fyzického senzoru</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-9.2141513560804897E-2"/>
-                  <c:y val="-9.756780402449694E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet!$A$2:$A$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>360</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet!$C$2:$C$37</c:f>
               <c:numCache>
@@ -779,11 +766,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-50D4-41AB-BAD5-BC7F55E059EF}"/>
+              <c16:uniqueId val="{00000002-7205-4E92-97F3-FAFDB055825F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -795,17 +782,30 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="964900720"/>
-        <c:axId val="973846272"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="964900720"/>
+        <c:axId val="1459909967"/>
+        <c:axId val="264640447"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1459909967"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -815,8 +815,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -843,15 +843,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="973846272"/>
+        <c:crossAx val="264640447"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="973846272"/>
+        <c:axId val="264640447"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -877,8 +874,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -902,9 +905,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="964900720"/>
+        <c:crossAx val="1459909967"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -914,37 +917,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1023,7 +995,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1050,8 +1022,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1131,11 +1103,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1146,11 +1113,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1162,7 +1124,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1182,9 +1144,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1197,10 +1156,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1240,22 +1199,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1360,8 +1320,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1493,19 +1453,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1519,6 +1480,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1555,10 +1527,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{664CFDD0-29ED-2976-5A0F-A46CEA94F8DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4DFF9B4-DFCD-AC17-FA9A-1E4CD31D1E74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1879,7 +1851,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1902,13 +1874,13 @@
       <c r="A2">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>588.62347412109295</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>10</v>
       </c>
     </row>
@@ -1916,13 +1888,13 @@
       <c r="A3">
         <v>20</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>592.91864013671795</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>10</v>
       </c>
     </row>
@@ -1930,13 +1902,13 @@
       <c r="A4">
         <v>30</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>588.97796630859295</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>10</v>
       </c>
     </row>
@@ -1944,13 +1916,13 @@
       <c r="A5">
         <v>40</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>589.44512939453102</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>10</v>
       </c>
     </row>
@@ -1958,13 +1930,13 @@
       <c r="A6">
         <v>50</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>620.315673828125</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>10</v>
       </c>
     </row>
@@ -1972,13 +1944,13 @@
       <c r="A7">
         <v>60</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>646.24475097656205</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>10</v>
       </c>
     </row>
@@ -1986,13 +1958,13 @@
       <c r="A8">
         <v>70</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>672.62310791015602</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>11</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>10</v>
       </c>
     </row>
@@ -2000,13 +1972,13 @@
       <c r="A9">
         <v>80</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>691.03961181640602</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>13</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>10</v>
       </c>
     </row>
@@ -2014,13 +1986,13 @@
       <c r="A10">
         <v>90</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>710.85906982421795</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>17</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>10</v>
       </c>
     </row>
@@ -2028,13 +2000,13 @@
       <c r="A11">
         <v>100</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>734.85217285156205</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>21</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>10</v>
       </c>
     </row>
@@ -2042,13 +2014,13 @@
       <c r="A12">
         <v>110</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>758.813720703125</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>25</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>10</v>
       </c>
     </row>
@@ -2056,13 +2028,13 @@
       <c r="A13">
         <v>120</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>777.79437255859295</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>29</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>10</v>
       </c>
     </row>
@@ -2070,13 +2042,13 @@
       <c r="A14">
         <v>130</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>802.05334472656205</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>32</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>10</v>
       </c>
     </row>
@@ -2084,13 +2056,13 @@
       <c r="A15">
         <v>140</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>822.94921875</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>35</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>10</v>
       </c>
     </row>
@@ -2098,13 +2070,13 @@
       <c r="A16">
         <v>150</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>840.75622558593705</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>38</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>10</v>
       </c>
     </row>
@@ -2112,13 +2084,13 @@
       <c r="A17">
         <v>160</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>863.97015380859295</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>42</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>10</v>
       </c>
     </row>
@@ -2126,13 +2098,13 @@
       <c r="A18">
         <v>170</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>879.31701660156205</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>45</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>10</v>
       </c>
     </row>
@@ -2140,13 +2112,13 @@
       <c r="A19">
         <v>180</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>897.760009765625</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>48</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>10</v>
       </c>
     </row>
@@ -2154,13 +2126,13 @@
       <c r="A20">
         <v>190</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>915.90283203125</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>50</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>10</v>
       </c>
     </row>
@@ -2168,13 +2140,13 @@
       <c r="A21">
         <v>200</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>932.90295410156205</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>53</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>10</v>
       </c>
     </row>
@@ -2182,13 +2154,13 @@
       <c r="A22">
         <v>210</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>947.75109863281205</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>56</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>10</v>
       </c>
     </row>
@@ -2196,13 +2168,13 @@
       <c r="A23">
         <v>220</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>965.26672363281205</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>58</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>10</v>
       </c>
     </row>
@@ -2210,13 +2182,13 @@
       <c r="A24">
         <v>230</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>980.63922119140602</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>61</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>10</v>
       </c>
     </row>
@@ -2224,13 +2196,13 @@
       <c r="A25">
         <v>240</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>1002.45025634765</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>64</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>10</v>
       </c>
     </row>
@@ -2238,13 +2210,13 @@
       <c r="A26">
         <v>250</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>1019.82946777343</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>66</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>10</v>
       </c>
     </row>
@@ -2252,13 +2224,13 @@
       <c r="A27">
         <v>260</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>1029.61254882812</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>69</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>10</v>
       </c>
     </row>
@@ -2266,13 +2238,13 @@
       <c r="A28">
         <v>270</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>1047.07897949218</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>72</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>10</v>
       </c>
     </row>
@@ -2280,13 +2252,13 @@
       <c r="A29">
         <v>280</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>1059.63391113281</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>74</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>10</v>
       </c>
     </row>
@@ -2294,13 +2266,13 @@
       <c r="A30">
         <v>290</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>1075.87487792968</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>76</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>10</v>
       </c>
     </row>
@@ -2308,13 +2280,13 @@
       <c r="A31">
         <v>300</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>1099.75708007812</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>80</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>10</v>
       </c>
     </row>
@@ -2322,13 +2294,13 @@
       <c r="A32">
         <v>310</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>1119.35852050781</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>83</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>10</v>
       </c>
     </row>
@@ -2336,13 +2308,13 @@
       <c r="A33">
         <v>320</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>1141.62854003906</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>86</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>10</v>
       </c>
     </row>
@@ -2350,13 +2322,13 @@
       <c r="A34">
         <v>330</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>1152.59155273437</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>89</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>10</v>
       </c>
     </row>
@@ -2364,13 +2336,13 @@
       <c r="A35">
         <v>340</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>1173.89428710937</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>92</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>10</v>
       </c>
     </row>
@@ -2378,13 +2350,13 @@
       <c r="A36">
         <v>350</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>1188.7919921875</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>95</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>10</v>
       </c>
     </row>
@@ -2392,13 +2364,13 @@
       <c r="A37">
         <v>360</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>1212.76379394531</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>98</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>10</v>
       </c>
     </row>

--- a/mereni_MD/6.sval3.xlsx
+++ b/mereni_MD/6.sval3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MarekU\Programing\Projekt-5\mereni_MD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097CC934-4D83-4CAB-9233-819792DC8495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC75848-32D3-460A-A1C8-C51BA400342F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -954,7 +954,598 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hodnota fyzického senzoru</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet!$B$2:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>588.62347412109295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>592.91864013671795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>588.97796630859295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>589.44512939453102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>620.315673828125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>646.24475097656205</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>672.62310791015602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>691.03961181640602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>710.85906982421795</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>734.85217285156205</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>758.813720703125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>777.79437255859295</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>802.05334472656205</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>822.94921875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>840.75622558593705</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>863.97015380859295</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>879.31701660156205</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>897.760009765625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>915.90283203125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>932.90295410156205</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>947.75109863281205</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>965.26672363281205</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>980.63922119140602</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1002.45025634765</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1019.82946777343</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1029.61254882812</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1047.07897949218</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1059.63391113281</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1075.87487792968</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1099.75708007812</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1119.35852050781</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1141.62854003906</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1152.59155273437</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1173.89428710937</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1188.7919921875</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1212.76379394531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet!$C$2:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7173-4CFC-A5EB-2716AACA8A76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="700125279"/>
+        <c:axId val="694653855"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="700125279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="694653855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="694653855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="700125279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1510,20 +2101,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1543,6 +2650,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51B6D94E-BCA4-DD9B-5960-05ADCF9316CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1851,7 +2994,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
